--- a/xlsx/玉米_intext.xlsx
+++ b/xlsx/玉米_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
   <si>
     <t>玉米</t>
   </si>
@@ -29,7 +29,7 @@
     <t>生物分类学</t>
   </si>
   <si>
-    <t>政策_政策_美國_玉米</t>
+    <t>政策_政策_美国_玉米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%AD%90%E8%91%89%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
-    <t>單子葉植物</t>
+    <t>单子叶植物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B8%AD%E8%B7%96%E8%8D%89%E7%B1%BB%E6%A4%8D%E7%89%A9</t>
@@ -113,31 +113,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>粵語</t>
+    <t>粤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩南語</t>
+    <t>闽南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E6%9D%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩東語</t>
+    <t>闽东语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%A9%B1</t>
   </si>
   <si>
-    <t>平話</t>
+    <t>平话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>晉語</t>
+    <t>晋语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E8%AF%AD</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>食物熱量</t>
+    <t>食物热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E7%B1%BB</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E6%B0%A8%E9%85%B8</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>蘇氨酸</t>
+    <t>苏氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E4%BA%AE%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>異亮氨酸</t>
+    <t>异亮氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AE%E6%B0%A8%E9%85%B8</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>賴氨酸</t>
+    <t>赖氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E6%B0%A8%E9%85%B8</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%88%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>纈氨酸</t>
+    <t>缬氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E6%B0%A8%E9%85%B8</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>組氨酸</t>
+    <t>组氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%99%E6%B0%A8%E9%85%B8</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>穀氨酸</t>
+    <t>谷氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%B0%A8%E9%85%B8</t>
@@ -311,31 +311,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E6%B0%A8%E9%85%B8</t>
   </si>
   <si>
-    <t>絲氨酸</t>
+    <t>丝氨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0A</t>
   </si>
   <si>
-    <t>維生素A</t>
+    <t>维生素A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%BB%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>葉黃素</t>
+    <t>叶黄素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E9%BB%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>玉米黃素</t>
+    <t>玉米黄素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E8%83%BA</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E9%B9%BC%E9%85%B8</t>
   </si>
   <si>
-    <t>菸鹼酸</t>
+    <t>菸碱酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%A1%E5%93%86%E9%86%87</t>
@@ -371,31 +371,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0C</t>
   </si>
   <si>
-    <t>維生素C</t>
+    <t>维生素C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>膳食礦物質</t>
+    <t>膳食矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B3%AA</t>
   </si>
   <si>
-    <t>鐵質</t>
+    <t>铁质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%80</t>
   </si>
   <si>
-    <t>鉀</t>
+    <t>钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%88%BE%E6%A2%85%E5%85%8B%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>奧爾梅克文明</t>
+    <t>奥尔梅克文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%9B%85%E4%BA%BA</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83%E5%A4%A7%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>哥倫布大交換</t>
+    <t>哥伦布大交换</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/sweet_corn</t>
@@ -599,13 +599,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F</t>
   </si>
   <si>
-    <t>糧食</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%B8</t>
   </si>
   <si>
-    <t>噸</t>
+    <t>吨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%86%87</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%9E%9C%E7%B3%96%E6%BC%BF</t>
   </si>
   <si>
-    <t>高果糖漿</t>
+    <t>高果糖浆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%8E</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E9%A6%AC</t>
   </si>
   <si>
-    <t>利馬</t>
+    <t>利马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%A1%94</t>
@@ -719,19 +716,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>安地斯山脈</t>
+    <t>安地斯山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%88%87%E6%96%87%E5%8C%96</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E5%BA%AB%E7%B4%8D</t>
   </si>
   <si>
-    <t>克羅埃西亞庫納</t>
+    <t>克罗埃西亚库纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E7%B2%92</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E6%BE%B1%E7%B2%89</t>
   </si>
   <si>
-    <t>玉米澱粉</t>
+    <t>玉米淀粉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%86%E7%A9%80</t>
   </si>
   <si>
-    <t>爆穀</t>
+    <t>爆谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E9%BB%91%E7%B2%89%E8%8F%8C</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E7%AD%8D</t>
   </si>
   <si>
-    <t>玉米筍</t>
+    <t>玉米笋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Blue_corn</t>
@@ -809,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E7%B3%96%E6%BC%BF</t>
   </si>
   <si>
-    <t>玉米糖漿</t>
+    <t>玉米糖浆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B2%B1%E5%B1%AC</t>
   </si>
   <si>
-    <t>高粱屬</t>
+    <t>高粱属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>小麥</t>
+    <t>小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%95%E9%BA%A6</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E7%AD%8D</t>
   </si>
   <si>
-    <t>竹筍</t>
+    <t>竹笋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E7%A7%91</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%B1%86</t>
   </si>
   <si>
-    <t>紅豆</t>
+    <t>红豆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%9C%E8%B1%86</t>
@@ -1067,21 +1064,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9</t>
   </si>
   <si>
-    <t>穀物</t>
+    <t>谷物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%96%E7%A9%80%E7%89%A9</t>
   </si>
   <si>
-    <t>準穀物</t>
+    <t>准谷物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%A5</t>
   </si>
   <si>
-    <t>大麥</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Fonio</t>
   </si>
   <si>
@@ -1109,15 +1103,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%95%E9%BA%A5</t>
   </si>
   <si>
-    <t>燕麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BA%A5</t>
   </si>
   <si>
-    <t>黑麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E9%BA%B8</t>
   </si>
   <si>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B0%8F%E9%BA%A5</t>
   </si>
   <si>
-    <t>黑小麥</t>
+    <t>黑小麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%92%B2</t>
@@ -1163,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%BC%8F%E9%BA%B5%E9%A3%9F</t>
   </si>
   <si>
-    <t>意式麵食</t>
+    <t>意式面食</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Khorasan_wheat</t>
@@ -1223,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%95%8E%E9%BA%A5</t>
   </si>
   <si>
-    <t>蕎麥</t>
+    <t>荞麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A6%E8%8D%9E%E9%BA%A6</t>
@@ -1235,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>莧科</t>
+    <t>苋科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8B%E5%B1%9E</t>
@@ -1277,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9C%E9%BA%A5</t>
   </si>
   <si>
-    <t>藜麥</t>
+    <t>藜麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9C%E5%B1%9E</t>
@@ -1373,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%B4%E9%A4%8A</t>
   </si>
   <si>
-    <t>馴養</t>
+    <t>驯养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E9%9D%A9%E5%91%BD</t>
@@ -1391,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>人工選擇</t>
+    <t>人工选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E7%89%A9%E9%87%8E%E7%94%9F%E8%BF%91%E7%BC%98%E7%A7%8D</t>
@@ -1433,13 +1421,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%86%9C%E8%9F%B2</t>
   </si>
   <si>
-    <t>四膜蟲</t>
+    <t>四膜虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%80%E9%85%92%E9%85%B5%E6%AF%8D</t>
   </si>
   <si>
-    <t>釀酒酵母</t>
+    <t>酿酒酵母</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Schizosaccharomyces_pombe</t>
@@ -1451,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%89%E8%89%B2%E9%BA%B5%E5%8C%85%E9%BB%B4%E8%8F%8C</t>
   </si>
   <si>
-    <t>粉色麵包黴菌</t>
+    <t>粉色面包霉菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9F%E5%8D%97%E8%8A%A5</t>
@@ -1517,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>藻類生質燃料</t>
+    <t>藻类生质燃料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bagasse</t>
@@ -1547,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>生物氣體</t>
+    <t>生物气体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biogasoline</t>
@@ -1565,7 +1553,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%96%E7%B6%AD%E7%B4%A0%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>纖維素乙醇</t>
+    <t>纤维素乙醇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Common_ethanol_fuel_mixtures</t>
@@ -1613,13 +1601,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B2%B9%E8%84%82%E8%86%8F</t>
   </si>
   <si>
-    <t>黃油脂膏</t>
+    <t>黄油脂膏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%8D%8B%E6%B2%B9</t>
   </si>
   <si>
-    <t>回鍋油</t>
+    <t>回锅油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%B2%9F%E6%B2%B9</t>
@@ -1685,9 +1673,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A6</t>
   </si>
   <si>
-    <t>小麦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%96%AF</t>
   </si>
   <si>
@@ -1715,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%A1%95</t>
   </si>
   <si>
-    <t>烏桕</t>
+    <t>乌桕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E8%90%8D</t>
@@ -1877,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E5%88%86%E9%A1%9E%E5%AD%B8%E8%B3%87%E8%A8%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>整合分類學資訊系統</t>
+    <t>整合分类学资讯系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%94%9F%E7%89%A9%E6%8A%80%E6%9C%AF%E4%BF%A1%E6%81%AF%E4%B8%AD%E5%BF%83</t>
@@ -1919,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1943,13 +1928,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3860,7 +3845,7 @@
         <v>108</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -3889,7 +3874,7 @@
         <v>110</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -3947,7 +3932,7 @@
         <v>114</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -3976,7 +3961,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -5104,7 +5089,7 @@
         <v>193</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -5130,10 +5115,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5159,10 +5144,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -5188,10 +5173,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5217,10 +5202,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5246,10 +5231,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5275,10 +5260,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5304,10 +5289,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5333,10 +5318,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5362,10 +5347,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5391,10 +5376,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5420,10 +5405,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5449,10 +5434,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5478,10 +5463,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -5507,10 +5492,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>10</v>
@@ -5536,10 +5521,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5565,10 +5550,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>13</v>
@@ -5594,10 +5579,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -5623,10 +5608,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5652,10 +5637,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5681,10 +5666,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5710,10 +5695,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5739,10 +5724,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5768,10 +5753,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5797,10 +5782,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5826,10 +5811,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5855,10 +5840,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5884,10 +5869,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5942,10 +5927,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>6</v>
@@ -5971,10 +5956,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6000,10 +5985,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6029,10 +6014,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6058,10 +6043,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6087,10 +6072,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6116,10 +6101,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6145,10 +6130,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6174,10 +6159,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6203,10 +6188,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6232,10 +6217,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6261,10 +6246,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>6</v>
@@ -6290,10 +6275,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6319,10 +6304,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>13</v>
@@ -6348,10 +6333,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6377,10 +6362,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6406,10 +6391,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6435,10 +6420,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>7</v>
@@ -6464,10 +6449,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6493,10 +6478,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6522,10 +6507,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6551,10 +6536,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6580,10 +6565,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6609,10 +6594,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6638,10 +6623,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6667,10 +6652,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6696,10 +6681,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6725,10 +6710,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6754,10 +6739,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6783,10 +6768,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6812,10 +6797,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6841,10 +6826,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6870,10 +6855,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6899,10 +6884,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6928,10 +6913,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6957,10 +6942,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6986,10 +6971,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7015,10 +7000,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7044,10 +7029,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7073,10 +7058,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7102,10 +7087,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7131,10 +7116,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7160,10 +7145,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7189,10 +7174,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7218,10 +7203,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7247,10 +7232,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7276,10 +7261,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7305,10 +7290,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7334,10 +7319,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7363,10 +7348,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7392,10 +7377,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -7421,10 +7406,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7450,10 +7435,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7479,10 +7464,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7508,10 +7493,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7537,10 +7522,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7566,10 +7551,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7595,10 +7580,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7624,10 +7609,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7653,10 +7638,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7682,10 +7667,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7711,10 +7696,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7740,10 +7725,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7769,10 +7754,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7798,10 +7783,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7827,10 +7812,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7856,10 +7841,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7885,10 +7870,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7914,10 +7899,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7943,10 +7928,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7972,10 +7957,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8001,10 +7986,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8030,10 +8015,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8059,10 +8044,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8088,10 +8073,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8117,10 +8102,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8146,10 +8131,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8175,10 +8160,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8204,10 +8189,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8233,10 +8218,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8262,10 +8247,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8291,10 +8276,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8320,10 +8305,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8349,10 +8334,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8378,10 +8363,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8407,10 +8392,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8436,10 +8421,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8465,10 +8450,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8494,10 +8479,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8523,10 +8508,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8552,10 +8537,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8581,10 +8566,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8610,10 +8595,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8639,10 +8624,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8668,10 +8653,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8697,10 +8682,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8726,10 +8711,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8755,10 +8740,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8784,10 +8769,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8813,10 +8798,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8842,10 +8827,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8871,10 +8856,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8900,10 +8885,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8929,10 +8914,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8958,10 +8943,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F230" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8987,10 +8972,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9016,10 +9001,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F232" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9045,10 +9030,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F233" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9074,10 +9059,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F234" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9103,10 +9088,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F235" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9132,10 +9117,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F236" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9161,10 +9146,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F237" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9190,10 +9175,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F238" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9219,10 +9204,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F239" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9248,10 +9233,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9277,10 +9262,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9306,10 +9291,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9335,10 +9320,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9364,10 +9349,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9393,10 +9378,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9422,10 +9407,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9451,10 +9436,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9480,10 +9465,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9509,10 +9494,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9538,10 +9523,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G250" t="n">
         <v>8</v>
@@ -9567,10 +9552,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9596,10 +9581,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9625,10 +9610,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9654,10 +9639,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9683,10 +9668,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9712,10 +9697,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9741,10 +9726,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9770,10 +9755,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9799,10 +9784,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9828,10 +9813,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9857,10 +9842,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9886,10 +9871,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9915,10 +9900,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G263" t="n">
         <v>4</v>
@@ -9944,10 +9929,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9973,10 +9958,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10002,10 +9987,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10031,10 +10016,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10060,10 +10045,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10089,10 +10074,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10118,10 +10103,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10147,10 +10132,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10176,10 +10161,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10205,10 +10190,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10234,10 +10219,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10263,10 +10248,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10292,10 +10277,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10321,10 +10306,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>292</v>
+      </c>
+      <c r="F277" t="s">
         <v>293</v>
-      </c>
-      <c r="F277" t="s">
-        <v>294</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10350,10 +10335,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10379,10 +10364,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10408,10 +10393,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F280" t="s">
-        <v>556</v>
+        <v>275</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10437,10 +10422,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F281" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10466,10 +10451,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F282" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10495,10 +10480,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F283" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10524,10 +10509,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F284" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10553,10 +10538,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F285" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10582,10 +10567,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F286" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10611,10 +10596,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F287" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10640,10 +10625,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F288" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10669,10 +10654,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F289" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10698,10 +10683,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F290" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10727,10 +10712,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F291" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10756,10 +10741,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F292" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10785,10 +10770,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F293" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10814,10 +10799,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F294" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10843,10 +10828,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F295" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10872,10 +10857,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F296" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10901,10 +10886,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F297" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10930,10 +10915,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F298" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10959,10 +10944,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F299" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10988,10 +10973,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F300" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11017,10 +11002,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F301" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11046,10 +11031,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F302" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11075,10 +11060,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F303" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11104,10 +11089,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F304" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11133,10 +11118,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F305" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11162,10 +11147,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F306" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11191,10 +11176,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F307" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11220,10 +11205,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F308" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11249,10 +11234,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F309" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11278,10 +11263,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F310" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11307,10 +11292,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F311" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11336,10 +11321,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F312" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11365,10 +11350,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F313" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11394,10 +11379,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F314" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11423,10 +11408,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F315" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11452,10 +11437,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F316" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11481,10 +11466,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F317" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -11510,10 +11495,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F318" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11539,10 +11524,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F319" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G319" t="n">
         <v>3</v>
@@ -11568,10 +11553,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F320" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11597,10 +11582,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F321" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11626,10 +11611,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F322" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11655,10 +11640,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F323" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11684,10 +11669,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F324" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
